--- a/data/tehilim-data/11.xlsx
+++ b/data/tehilim-data/11.xlsx
@@ -25,7 +25,7 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>לְדָוִד</t>
